--- a/E1/Guide/reponsebloccompetences.xlsx
+++ b/E1/Guide/reponsebloccompetences.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Debian\home\geoffroy\Projets\Rendus_Ecole_Simplon\PCO\E1\Guide\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Debian\home\geoffroy\Projet-chef-d-oeuvre\E1\Guide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486DD7AA-54B5-4457-873D-01079D2AD983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA10A19-80F6-459B-8B0C-6252841ED002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -166,6 +166,7 @@
   </si>
   <si>
     <t>code/stratégie_nettoyage_donnees.py
+code/bdd_sqlite/exemple_requete.py
 ressources/C2</t>
   </si>
 </sst>
@@ -499,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/E1/Guide/reponsebloccompetences.xlsx
+++ b/E1/Guide/reponsebloccompetences.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Debian\home\geoffroy\Projet-chef-d-oeuvre\E1\Guide\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscode\files\Rendus_Ecole_Simplon\PCO\E1\Guide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA10A19-80F6-459B-8B0C-6252841ED002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B75985-70EB-4D59-B634-4CB72A531F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>A1. Développer la gestion des données analytiques d’un projet d’application</t>
   </si>
@@ -84,20 +84,7 @@
     <t>FAIT (Iris)</t>
   </si>
   <si>
-    <t>Chaque fois qu'on fait une prédiction elle est ajoutée dans la bdd
-Fournir les requêtes nécessaires au besoin fonctionnel</t>
-  </si>
-  <si>
     <t>C12. Avoir un back end de l'application dans le respect des spécifications fonctionnelles et des bonnes pratiques du domaine</t>
-  </si>
-  <si>
-    <t>Codes d'accès à l'application
-Tests automatisés de l'application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Produire les interfaces et mises en pages attendues
-Développer les fonctionnalités front-end</t>
   </si>
   <si>
     <t>C15. Maintenir l'application à l'aide de techniques de monitorage afin de détecter (et corriger ?) d'éventuels dysfonctionnements</t>
@@ -168,6 +155,15 @@
     <t>code/stratégie_nettoyage_donnees.py
 code/bdd_sqlite/exemple_requete.py
 ressources/C2</t>
+  </si>
+  <si>
+    <t>code/api/api dans la fonction fonction predict</t>
+  </si>
+  <si>
+    <t>Tests automatisés de l'application</t>
+  </si>
+  <si>
+    <t>code/app/app.py</t>
   </si>
 </sst>
 </file>
@@ -500,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -522,21 +518,21 @@
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -544,10 +540,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -558,13 +554,13 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -572,10 +568,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -583,10 +579,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -594,10 +590,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -608,7 +604,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -621,10 +617,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -632,34 +628,40 @@
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
       <c r="B17" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>22</v>
+      <c r="B18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -670,15 +672,15 @@
         <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -692,10 +694,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -703,10 +705,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -714,10 +716,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/E1/Guide/reponsebloccompetences.xlsx
+++ b/E1/Guide/reponsebloccompetences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscode\files\Rendus_Ecole_Simplon\PCO\E1\Guide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B75985-70EB-4D59-B634-4CB72A531F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFF87C5-6E9D-4F18-AC3D-9562624B049B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>A1. Développer la gestion des données analytiques d’un projet d’application</t>
   </si>
@@ -160,10 +160,10 @@
     <t>code/api/api dans la fonction fonction predict</t>
   </si>
   <si>
-    <t>Tests automatisés de l'application</t>
-  </si>
-  <si>
     <t>code/app/app.py</t>
+  </si>
+  <si>
+    <t>.github/workflows/python-app.yml à la racine du répertoire github, éxécute tests avec github action de l'API</t>
   </si>
 </sst>
 </file>
@@ -496,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -649,8 +649,11 @@
       <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>41</v>
+      <c r="B17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -661,7 +664,7 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">

--- a/E1/Guide/reponsebloccompetences.xlsx
+++ b/E1/Guide/reponsebloccompetences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscode\files\Rendus_Ecole_Simplon\PCO\E1\Guide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFF87C5-6E9D-4F18-AC3D-9562624B049B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989B849D-95E0-47F5-A0FE-B4487B7B797A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <t>A1. Développer la gestion des données analytiques d’un projet d’application</t>
   </si>
@@ -88,12 +88,6 @@
   </si>
   <si>
     <t>C15. Maintenir l'application à l'aide de techniques de monitorage afin de détecter (et corriger ?) d'éventuels dysfonctionnements</t>
-  </si>
-  <si>
-    <t>Grafana en local
-Identifier les éléments de l'application à monitorer (application elle-même ?)
-Réaliser l'intégration technique des éléments de monitorage nécessaires
-Intégrer un système d'alertes automatisées, formater la procédure de débogage de l'application</t>
   </si>
   <si>
     <t>FAIT</t>
@@ -164,6 +158,9 @@
   </si>
   <si>
     <t>.github/workflows/python-app.yml à la racine du répertoire github, éxécute tests avec github action de l'API</t>
+  </si>
+  <si>
+    <t>code/api/tracking.py</t>
   </si>
 </sst>
 </file>
@@ -496,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -518,21 +515,21 @@
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -540,10 +537,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -554,13 +551,13 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -568,10 +565,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -579,10 +576,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -590,10 +587,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -604,7 +601,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -617,10 +614,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -628,10 +625,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -639,10 +636,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -650,10 +647,10 @@
         <v>19</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -661,10 +658,10 @@
         <v>13</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -675,15 +672,18 @@
         <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>21</v>
+      <c r="B20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -697,10 +697,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -708,10 +708,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -719,10 +719,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/E1/Guide/reponsebloccompetences.xlsx
+++ b/E1/Guide/reponsebloccompetences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscode\files\Rendus_Ecole_Simplon\PCO\E1\Guide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989B849D-95E0-47F5-A0FE-B4487B7B797A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B27BEF1-0DB3-45D2-A539-3491F6BFF34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
   <si>
     <t>A1. Développer la gestion des données analytiques d’un projet d’application</t>
   </si>
@@ -161,6 +161,21 @@
   </si>
   <si>
     <t>code/api/tracking.py</t>
+  </si>
+  <si>
+    <t>Nom de la compétence</t>
+  </si>
+  <si>
+    <t>Etat</t>
+  </si>
+  <si>
+    <t>Localisation du justificatif de compétence dans les dossiers</t>
+  </si>
+  <si>
+    <t>Localisation dans le fichier Word</t>
+  </si>
+  <si>
+    <t>Annexe 1 : Rapports d'avancement + Partie 6.2 Gestion de projet</t>
   </si>
 </sst>
 </file>
@@ -491,238 +506,255 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="64.08984375" customWidth="1"/>
     <col min="2" max="2" width="72" customWidth="1"/>
-    <col min="3" max="3" width="86.6328125" customWidth="1"/>
+    <col min="3" max="3" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+    <row r="5" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="11" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="12" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
         <v>37</v>
+      </c>
+      <c r="D27" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/E1/Guide/reponsebloccompetences.xlsx
+++ b/E1/Guide/reponsebloccompetences.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscode\files\Rendus_Ecole_Simplon\PCO\E1\Guide\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daumer-g\Desktop\vscode\Projet-chef-d-oeuvre\E1\Guide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B27BEF1-0DB3-45D2-A539-3491F6BFF34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30615" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
   <si>
     <t>A1. Développer la gestion des données analytiques d’un projet d’application</t>
   </si>
@@ -99,9 +98,6 @@
   </si>
   <si>
     <t>C4 Préparer les données depuis la bdd pour leur utilisation par des modèles d'IA</t>
-  </si>
-  <si>
-    <t>FAIt</t>
   </si>
   <si>
     <t>code/data_exploration.ipynb</t>
@@ -181,7 +177,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -505,41 +501,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.08984375" customWidth="1"/>
+    <col min="1" max="1" width="64.140625" customWidth="1"/>
     <col min="2" max="2" width="72" customWidth="1"/>
     <col min="3" max="3" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -547,10 +543,10 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -558,10 +554,10 @@
         <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -569,16 +565,16 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -586,10 +582,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -597,21 +593,21 @@
         <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -619,10 +615,10 @@
         <v>21</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -630,15 +626,15 @@
         <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -646,10 +642,10 @@
         <v>21</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -657,10 +653,10 @@
         <v>21</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -668,10 +664,10 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -679,10 +675,10 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -690,10 +686,10 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -701,10 +697,10 @@
         <v>18</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -712,16 +708,16 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -729,10 +725,10 @@
         <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -740,10 +736,10 @@
         <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -751,10 +747,10 @@
         <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
